--- a/webScrapping/espn_scrapper/IPL/Sunrisers Hyderabad/Jonny Bairstow †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Sunrisers Hyderabad/Jonny Bairstow †.xlsx
@@ -439,142 +439,142 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Sep 29 2020</v>
+        <v xml:space="preserve"> Oct 2 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 15 runs</v>
+        <v>Sunrisers won by 7 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E2" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F2" t="str">
         <v>Jonny Bairstow †</v>
       </c>
       <c r="G2" t="str">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H2" t="str">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="I2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>110.41</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 11 2020</v>
+        <v xml:space="preserve"> Sep 29 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Royals won by 5 wickets (with 1 ball remaining)</v>
+        <v>Sunrisers won by 15 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="F3" t="str">
         <v>Jonny Bairstow †</v>
       </c>
       <c r="G3" t="str">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H3" t="str">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="str">
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>84.21</v>
+        <v>110.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 8 2020</v>
+        <v xml:space="preserve"> Oct 11 2020</v>
       </c>
       <c r="B4" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Sunrisers won by 69 runs</v>
+        <v>Royals won by 5 wickets (with 1 ball remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E4" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F4" t="str">
         <v>Jonny Bairstow †</v>
       </c>
       <c r="G4" t="str">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H4" t="str">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="I4" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
-        <v>176.36</v>
+        <v>84.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 2 2020</v>
+        <v xml:space="preserve"> Oct 8 2020</v>
       </c>
       <c r="B5" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>Sunrisers won by 7 runs</v>
+        <v>Sunrisers won by 69 runs</v>
       </c>
       <c r="D5" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E5" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F5" t="str">
         <v>Jonny Bairstow †</v>
       </c>
       <c r="G5" t="str">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H5" t="str">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I5" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" t="str">
-        <v>0.00</v>
+        <v>176.36</v>
       </c>
     </row>
   </sheetData>
